--- a/data/A股公司简介.xlsx
+++ b/data/A股公司简介.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -6701,7 +6701,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.24997711111789"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6720,17 +6720,17 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7010,23 +7010,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="31" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="20.81640625" customWidth="1"/>
-    <col min="8" max="8" width="20.08984375" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" customWidth="true"/>
+    <col min="2" max="2" width="16.08984375" customWidth="true"/>
+    <col min="3" max="3" width="10.08984375" style="5" customWidth="true"/>
+    <col min="4" max="4" width="24.54296875" style="5" customWidth="true"/>
+    <col min="5" max="5" width="31" style="5" customWidth="true"/>
+    <col min="6" max="6" width="13.453125" customWidth="true"/>
+    <col min="7" max="7" width="20.81640625" customWidth="true"/>
+    <col min="8" max="8" width="20.08984375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" s="1" customFormat="true" ht="20" customHeight="true" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>554</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>304</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>414</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>464</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>514</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>184</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>354</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>364</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>384</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>194</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>624</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>204</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>214</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>224</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>334</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>274</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>294</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>474</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>614</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>234</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>324</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>544</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>244</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>254</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>654</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>174</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>444</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>634</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>344</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>163</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>394</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>584</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>374</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>534</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>108</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>434</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>98</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>314</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>604</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>484</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>504</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>494</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>404</v>
       </c>
@@ -9514,7 +9514,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>524</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>143</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>283</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>594</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>574</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>564</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>153</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>264</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>644</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>424</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>454</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>84</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>128</v>
       </c>
@@ -10256,7 +10256,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>663</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>664</v>
       </c>
@@ -10362,7 +10362,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>665</v>
       </c>
@@ -10415,7 +10415,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>666</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>667</v>
       </c>
@@ -10521,7 +10521,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>668</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>669</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>670</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>671</v>
       </c>
@@ -10730,7 +10730,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>672</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>673</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>674</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>675</v>
       </c>
@@ -10942,7 +10942,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>676</v>
       </c>
@@ -10995,7 +10995,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>677</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>678</v>
       </c>
@@ -11101,7 +11101,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>679</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>680</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>681</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>682</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>683</v>
       </c>
@@ -11366,7 +11366,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="83" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>684</v>
       </c>
@@ -11419,7 +11419,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="84" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>685</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>686</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="86" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>687</v>
       </c>
@@ -11578,7 +11578,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="87" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>688</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>689</v>
       </c>
@@ -11684,7 +11684,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>690</v>
       </c>
@@ -11737,7 +11737,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="90" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>691</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>692</v>
       </c>
@@ -11843,7 +11843,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>693</v>
       </c>
@@ -11896,7 +11896,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="93" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>694</v>
       </c>
@@ -11949,7 +11949,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="94" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>695</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>696</v>
       </c>
@@ -12055,7 +12055,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="96" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>697</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="97" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>698</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="98" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>699</v>
       </c>
@@ -12214,7 +12214,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="99" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>700</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="100" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>701</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="101" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>702</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="102" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>703</v>
       </c>
@@ -12426,7 +12426,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="103" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>704</v>
       </c>
@@ -12479,7 +12479,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="104" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>705</v>
       </c>
@@ -12532,7 +12532,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="105" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>706</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="106" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>707</v>
       </c>
@@ -12638,7 +12638,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="107" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>708</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="108" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>709</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="109" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>710</v>
       </c>
@@ -12797,7 +12797,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="110" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>711</v>
       </c>
@@ -12850,7 +12850,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="111" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>712</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="112" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>713</v>
       </c>
@@ -12956,7 +12956,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="113" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>714</v>
       </c>
@@ -13009,7 +13009,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="114" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>715</v>
       </c>
@@ -13062,7 +13062,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="115" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>716</v>
       </c>
@@ -13115,7 +13115,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="116" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>717</v>
       </c>
@@ -13168,7 +13168,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="117" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>718</v>
       </c>
@@ -13221,7 +13221,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="118" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>719</v>
       </c>
@@ -13274,7 +13274,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="119" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>720</v>
       </c>
@@ -13327,7 +13327,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="120" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>721</v>
       </c>
@@ -13380,7 +13380,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="121" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>722</v>
       </c>
@@ -13433,7 +13433,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="122" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>723</v>
       </c>
@@ -13486,7 +13486,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="123" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>724</v>
       </c>
@@ -13539,7 +13539,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="124" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>725</v>
       </c>
@@ -13592,7 +13592,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="125" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>726</v>
       </c>
@@ -13645,7 +13645,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="126" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>727</v>
       </c>
@@ -13698,7 +13698,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="127" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>728</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="128" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>729</v>
       </c>
@@ -13804,7 +13804,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="129" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>730</v>
       </c>
@@ -13857,7 +13857,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="130" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>731</v>
       </c>
@@ -13910,7 +13910,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="131" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>732</v>
       </c>
@@ -13963,7 +13963,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="132" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>733</v>
       </c>
@@ -14016,7 +14016,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="133" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>734</v>
       </c>
@@ -14069,7 +14069,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="134" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>735</v>
       </c>
@@ -14122,7 +14122,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="135" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>736</v>
       </c>
@@ -14175,7 +14175,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="136" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>737</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="137" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>738</v>
       </c>
@@ -14281,7 +14281,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="138" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>739</v>
       </c>
@@ -14334,7 +14334,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="139" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>740</v>
       </c>
@@ -14387,7 +14387,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="140" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>741</v>
       </c>
@@ -14440,7 +14440,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="141" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>742</v>
       </c>
@@ -14493,7 +14493,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="142" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>743</v>
       </c>
@@ -14546,7 +14546,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="143" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>744</v>
       </c>
@@ -14599,7 +14599,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="144" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>745</v>
       </c>
@@ -14652,7 +14652,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="145" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>746</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="146" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>747</v>
       </c>
@@ -14758,7 +14758,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="147" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>748</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="148" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>749</v>
       </c>
@@ -14864,7 +14864,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="149" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>750</v>
       </c>
@@ -14917,7 +14917,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="150" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>751</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="151" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>752</v>
       </c>
@@ -15023,7 +15023,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="152" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>753</v>
       </c>
@@ -15076,7 +15076,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="153" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>754</v>
       </c>
@@ -15129,7 +15129,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="154" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>755</v>
       </c>
@@ -15182,7 +15182,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="155" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>756</v>
       </c>
@@ -15235,7 +15235,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="156" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>757</v>
       </c>
@@ -15288,7 +15288,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="157" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>758</v>
       </c>
@@ -15341,7 +15341,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="158" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>759</v>
       </c>
@@ -15394,7 +15394,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="159" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>760</v>
       </c>
@@ -15447,7 +15447,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="160" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>761</v>
       </c>
@@ -15500,7 +15500,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="161" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>762</v>
       </c>
@@ -15553,7 +15553,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="162" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>763</v>
       </c>
@@ -15606,7 +15606,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="163" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>764</v>
       </c>
@@ -15659,7 +15659,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="164" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>765</v>
       </c>
@@ -15712,7 +15712,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="165" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>766</v>
       </c>
@@ -15765,7 +15765,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="166" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>767</v>
       </c>
@@ -15818,7 +15818,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="167" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>768</v>
       </c>
@@ -15871,7 +15871,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="168" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>769</v>
       </c>
@@ -15924,7 +15924,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="169" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>770</v>
       </c>
@@ -15977,7 +15977,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="170" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>771</v>
       </c>
@@ -16030,7 +16030,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="171" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>772</v>
       </c>
@@ -16083,7 +16083,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="172" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>773</v>
       </c>
@@ -16136,7 +16136,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="173" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>774</v>
       </c>
@@ -16189,7 +16189,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="174" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>775</v>
       </c>
@@ -16242,7 +16242,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="175" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>776</v>
       </c>
@@ -16295,7 +16295,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="176" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>777</v>
       </c>
@@ -16345,7 +16345,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="177" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>778</v>
       </c>
@@ -16398,7 +16398,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="178" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>779</v>
       </c>
@@ -16451,7 +16451,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="179" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>780</v>
       </c>
@@ -16504,7 +16504,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="180" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>781</v>
       </c>
@@ -16557,7 +16557,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="181" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>782</v>
       </c>
@@ -16610,7 +16610,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="182" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>783</v>
       </c>
@@ -16663,7 +16663,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="183" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>784</v>
       </c>
@@ -16716,7 +16716,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="184" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>785</v>
       </c>
@@ -16769,7 +16769,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="185" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>786</v>
       </c>
@@ -16822,7 +16822,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="186" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>787</v>
       </c>
@@ -16875,7 +16875,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="187" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>788</v>
       </c>
@@ -16928,7 +16928,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="188" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>789</v>
       </c>
@@ -16981,7 +16981,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="189" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>790</v>
       </c>
@@ -17034,7 +17034,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="190" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>791</v>
       </c>
@@ -17087,7 +17087,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="191" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>792</v>
       </c>
@@ -17140,7 +17140,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="192" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>793</v>
       </c>
@@ -17193,7 +17193,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="193" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>794</v>
       </c>
@@ -17246,7 +17246,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="194" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>795</v>
       </c>
@@ -17299,7 +17299,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="195" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>796</v>
       </c>
@@ -17352,7 +17352,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="196" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>797</v>
       </c>
@@ -17405,7 +17405,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="197" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>798</v>
       </c>
@@ -17458,7 +17458,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="198" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>799</v>
       </c>
@@ -17511,7 +17511,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="199" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>800</v>
       </c>
@@ -17564,7 +17564,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="200" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>801</v>
       </c>
@@ -17617,7 +17617,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="201" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>802</v>
       </c>
